--- a/example_data/EMA/label_corrected/duotrav-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/duotrav-epar-product-information_en.xlsx
@@ -838,7 +838,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>renal || hepatic</t>
+          <t>hepatic || renal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -881,7 +881,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>renal || hepatic</t>
+          <t>hepatic || renal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -923,7 +923,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>renal || hepatic</t>
+          <t>hepatic || renal</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
